--- a/Resouces.xlsx
+++ b/Resouces.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>魔法陣</t>
     <rPh sb="0" eb="3">
@@ -35,6 +35,16 @@
   <si>
     <t>http://seiga.nicovideo.jp/seiga/im4389828</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キラキラ効果音</t>
+    <rPh sb="4" eb="7">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://soundeffect-lab.info/sound/anime/</t>
   </si>
 </sst>
 </file>
@@ -414,13 +424,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -428,6 +441,14 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
